--- a/OpenWaters/OpenWaters/Tests/MonLoc_Example.xlsx
+++ b/OpenWaters/OpenWaters/Tests/MonLoc_Example.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="MonLoc_ImportTemplate" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -7198,7 +7198,7 @@
   <dimension ref="A1:Z1006"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/OpenWaters/OpenWaters/Tests/MonLoc_Example.xlsx
+++ b/OpenWaters/OpenWaters/Tests/MonLoc_Example.xlsx
@@ -7197,7 +7197,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1006"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
